--- a/medicine/Sexualité et sexologie/L'Einstein_du_sexe/L'Einstein_du_sexe.xlsx
+++ b/medicine/Sexualité et sexologie/L'Einstein_du_sexe/L'Einstein_du_sexe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%27Einstein_du_sexe</t>
+          <t>L'Einstein_du_sexe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'Einstein du sexe (Der Einstein des Sex) est un film allemand[1] de Rosa von Praunheim sorti en 1999 qui retrace la vie de Magnus Hirschfeld, sexologue révolutionnaire et précurseur du mouvement gay.
+L'Einstein du sexe (Der Einstein des Sex) est un film allemand de Rosa von Praunheim sorti en 1999 qui retrace la vie de Magnus Hirschfeld, sexologue révolutionnaire et précurseur du mouvement gay.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%27Einstein_du_sexe</t>
+          <t>L'Einstein_du_sexe</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Magnus Hirschfeld fonde en 1897 un comité scientifique militant pour la dépénalisation de l'homosexualité.
-Avec le baron Hermann von Teschenberg (son amant), Karl Giese et Dorchen, il crée le premier Institut für Sexualwissenschaft (Institut de sexologie) à Berlin en 1919[2].
+Avec le baron Hermann von Teschenberg (son amant), Karl Giese et Dorchen, il crée le premier Institut für Sexualwissenschaft (Institut de sexologie) à Berlin en 1919.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%27Einstein_du_sexe</t>
+          <t>L'Einstein_du_sexe</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : L'Einstein du sexe
 Titre original : Der Einstein des Sex
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>L%27Einstein_du_sexe</t>
+          <t>L'Einstein_du_sexe</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Kai Schumann : Magnus Hirschfeld (jeune)
 Friedel von Wangenheim : Magnus Hirschfeld (âgé)
@@ -601,7 +619,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>L%27Einstein_du_sexe</t>
+          <t>L'Einstein_du_sexe</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -619,9 +637,11 @@
           <t>Divers</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le film est diffusé sur la chaine Arte le mercredi 29 novembre 2017[1],[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film est diffusé sur la chaine Arte le mercredi 29 novembre 2017,.
 </t>
         </is>
       </c>
